--- a/biology/Zoologie/Euphausia_pacifica/Euphausia_pacifica.xlsx
+++ b/biology/Zoologie/Euphausia_pacifica/Euphausia_pacifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le krill pacifique (Euphausia pacifica) est une espèce de krill vivant dans les eaux de l'océan Pacifique.
 Cette espèce est intensivement pêchée dans les eaux japonaises où elle est appelée isada krill ou tsunonashi okiami (ツノナシオキアミ). Il existe un quota de pêche annuel de 70 000 tonnes, édicté par le gouvernement japonais.
@@ -513,9 +525,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Euphausia pacifica Hansen, 1911[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Euphausia pacifica Hansen, 1911.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) H. J. Hansen, « The genera and species of the Order Euphausiacea, with account of remarkable variation », Bulletin de l'Institut océanographique, vol. 210,‎ 1911 (lire en ligne, consulté le 9 décembre 2023)</t>
         </is>
